--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ephb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H2">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I2">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J2">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.143611</v>
+        <v>0.1709536666666667</v>
       </c>
       <c r="N2">
-        <v>0.430833</v>
+        <v>0.512861</v>
       </c>
       <c r="O2">
-        <v>0.006856337892517759</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="P2">
-        <v>0.006856337892517758</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="Q2">
-        <v>0.07195897228866668</v>
+        <v>0.03678506919411111</v>
       </c>
       <c r="R2">
-        <v>0.647630750598</v>
+        <v>0.331065622747</v>
       </c>
       <c r="S2">
-        <v>0.004127260758785751</v>
+        <v>0.001412557650433107</v>
       </c>
       <c r="T2">
-        <v>0.00412726075878575</v>
+        <v>0.001412557650433107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H3">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I3">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J3">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>51.578886</v>
       </c>
       <c r="O3">
-        <v>0.8208337581746376</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="P3">
-        <v>0.8208337581746377</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="Q3">
-        <v>8.614854545390667</v>
+        <v>3.699507060324666</v>
       </c>
       <c r="R3">
-        <v>77.53369090851599</v>
+        <v>33.295563542922</v>
       </c>
       <c r="S3">
-        <v>0.4941114356831618</v>
+        <v>0.1420621767303754</v>
       </c>
       <c r="T3">
-        <v>0.4941114356831619</v>
+        <v>0.1420621767303754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,14 +643,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H4">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I4">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J4">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.609156666666667</v>
+        <v>4.322599666666666</v>
       </c>
       <c r="N4">
-        <v>10.82747</v>
+        <v>12.967799</v>
       </c>
       <c r="O4">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="P4">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="Q4">
-        <v>1.808435318757778</v>
+        <v>0.9301182650081109</v>
       </c>
       <c r="R4">
-        <v>16.27591786882</v>
+        <v>8.371064385073</v>
       </c>
       <c r="S4">
-        <v>0.1037241623736574</v>
+        <v>0.03571681934623376</v>
       </c>
       <c r="T4">
-        <v>0.1037241623736574</v>
+        <v>0.03571681934623376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3313226666666667</v>
+        <v>0.5010686666666667</v>
       </c>
       <c r="H5">
-        <v>0.9939680000000001</v>
+        <v>1.503206</v>
       </c>
       <c r="I5">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="J5">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.143611</v>
+        <v>0.1709536666666667</v>
       </c>
       <c r="N5">
-        <v>0.430833</v>
+        <v>0.512861</v>
       </c>
       <c r="O5">
-        <v>0.006856337892517759</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="P5">
-        <v>0.006856337892517758</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="Q5">
-        <v>0.04758157948266668</v>
+        <v>0.08565952581844445</v>
       </c>
       <c r="R5">
-        <v>0.4282342153440001</v>
+        <v>0.770935732366</v>
       </c>
       <c r="S5">
-        <v>0.002729077133732007</v>
+        <v>0.003289351391153196</v>
       </c>
       <c r="T5">
-        <v>0.002729077133732007</v>
+        <v>0.003289351391153196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3313226666666667</v>
+        <v>0.5010686666666667</v>
       </c>
       <c r="H6">
-        <v>0.9939680000000001</v>
+        <v>1.503206</v>
       </c>
       <c r="I6">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="J6">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>51.578886</v>
       </c>
       <c r="O6">
-        <v>0.8208337581746376</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="P6">
-        <v>0.8208337581746377</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="Q6">
-        <v>5.696418017738667</v>
+        <v>8.614854545390667</v>
       </c>
       <c r="R6">
-        <v>51.267762159648</v>
+        <v>77.53369090851599</v>
       </c>
       <c r="S6">
-        <v>0.3267223224914756</v>
+        <v>0.3308129891300608</v>
       </c>
       <c r="T6">
-        <v>0.3267223224914756</v>
+        <v>0.3308129891300608</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3313226666666667</v>
+        <v>0.5010686666666667</v>
       </c>
       <c r="H7">
-        <v>0.9939680000000001</v>
+        <v>1.503206</v>
       </c>
       <c r="I7">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="J7">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.609156666666667</v>
+        <v>4.322599666666666</v>
       </c>
       <c r="N7">
-        <v>10.82747</v>
+        <v>12.967799</v>
       </c>
       <c r="O7">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="P7">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="Q7">
-        <v>1.195795411217778</v>
+        <v>2.165919251510445</v>
       </c>
       <c r="R7">
-        <v>10.76215870096</v>
+        <v>19.493273263594</v>
       </c>
       <c r="S7">
-        <v>0.06858574155918719</v>
+        <v>0.08317194655246749</v>
       </c>
       <c r="T7">
-        <v>0.06858574155918719</v>
+        <v>0.08317194655246749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.453708</v>
+      </c>
+      <c r="I8">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J8">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1709536666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.512861</v>
+      </c>
+      <c r="O8">
+        <v>0.007882947722998253</v>
+      </c>
+      <c r="P8">
+        <v>0.007882947722998253</v>
+      </c>
+      <c r="Q8">
+        <v>0.08283890428755555</v>
+      </c>
+      <c r="R8">
+        <v>0.745550138588</v>
+      </c>
+      <c r="S8">
+        <v>0.003181038681411949</v>
+      </c>
+      <c r="T8">
+        <v>0.003181038681411949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.453708</v>
+      </c>
+      <c r="I9">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J9">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.192962</v>
+      </c>
+      <c r="N9">
+        <v>51.578886</v>
+      </c>
+      <c r="O9">
+        <v>0.7927950496303802</v>
+      </c>
+      <c r="P9">
+        <v>0.7927950496303802</v>
+      </c>
+      <c r="Q9">
+        <v>8.331182134365333</v>
+      </c>
+      <c r="R9">
+        <v>74.980639209288</v>
+      </c>
+      <c r="S9">
+        <v>0.319919883769944</v>
+      </c>
+      <c r="T9">
+        <v>0.319919883769944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.453708</v>
+      </c>
+      <c r="I10">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J10">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.322599666666666</v>
+      </c>
+      <c r="N10">
+        <v>12.967799</v>
+      </c>
+      <c r="O10">
+        <v>0.1993220026466216</v>
+      </c>
+      <c r="P10">
+        <v>0.1993220026466216</v>
+      </c>
+      <c r="Q10">
+        <v>2.094599238743555</v>
+      </c>
+      <c r="R10">
+        <v>18.851393148692</v>
+      </c>
+      <c r="S10">
+        <v>0.08043323674792037</v>
+      </c>
+      <c r="T10">
+        <v>0.08043323674792037</v>
       </c>
     </row>
   </sheetData>
